--- a/biology/Médecine/Bernard_Brusset/Bernard_Brusset.xlsx
+++ b/biology/Médecine/Bernard_Brusset/Bernard_Brusset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Brusset est un psychiatre et psychanalyste français, né en 1938, enseignant en psychopathologie à l'université Paris-Descartes de 1967 à 2001 et dont il est aujourd'hui membre honoraire, membre de la Société psychanalytique de Paris[1].
-Bernard Brusset est reconnu notamment pour ses travaux au sujet de l’anorexie mentale[cit 1] ainsi que ceux autour de la relation d'objet et de la notion de lien psychique[cit 2],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Brusset est un psychiatre et psychanalyste français, né en 1938, enseignant en psychopathologie à l'université Paris-Descartes de 1967 à 2001 et dont il est aujourd'hui membre honoraire, membre de la Société psychanalytique de Paris.
+Bernard Brusset est reconnu notamment pour ses travaux au sujet de l’anorexie mentale[cit 1] ainsi que ceux autour de la relation d'objet et de la notion de lien psychique[cit 2],.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'assiette et le miroir : l'anorexie mentale de l'enfant et de l'adolescent, Vol. 4, Privat, 1977
 (préface de André Green) Psychanalyse du lien, PUF 1988
